--- a/data/pca/factorExposure/factorExposure_2018-10-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.06694737837855814</v>
+        <v>-0.04359645493315967</v>
       </c>
       <c r="C2">
-        <v>-0.06237725379318287</v>
+        <v>0.002608903500148229</v>
       </c>
       <c r="D2">
-        <v>0.05958959499910817</v>
+        <v>-0.01634839307542214</v>
       </c>
       <c r="E2">
-        <v>-0.03887359029987058</v>
+        <v>-0.0158371695621426</v>
       </c>
       <c r="F2">
-        <v>0.141438564337308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04360441740445916</v>
+      </c>
+      <c r="G2">
+        <v>-0.1067920101273444</v>
+      </c>
+      <c r="H2">
+        <v>0.05497296627130856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1860278272993552</v>
+        <v>-0.1107489574964205</v>
       </c>
       <c r="C3">
-        <v>-0.0005134612873596789</v>
+        <v>-0.04131168959575154</v>
       </c>
       <c r="D3">
-        <v>0.1270224535326668</v>
+        <v>-0.05497133574572404</v>
       </c>
       <c r="E3">
-        <v>-0.1214395734871549</v>
+        <v>-0.009009007272906766</v>
       </c>
       <c r="F3">
-        <v>0.3425472206463357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.02984514915444423</v>
+      </c>
+      <c r="G3">
+        <v>-0.3363847372290275</v>
+      </c>
+      <c r="H3">
+        <v>0.208954103699482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06495677232507067</v>
+        <v>-0.05400539973619739</v>
       </c>
       <c r="C4">
-        <v>-0.03382298147063816</v>
+        <v>-0.0062388132129691</v>
       </c>
       <c r="D4">
-        <v>0.03657626787461559</v>
+        <v>-0.03310099144071746</v>
       </c>
       <c r="E4">
-        <v>-0.06441774022631527</v>
+        <v>0.01672695621862678</v>
       </c>
       <c r="F4">
-        <v>0.05868656245385771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06378130337629118</v>
+      </c>
+      <c r="G4">
+        <v>-0.05481427308983678</v>
+      </c>
+      <c r="H4">
+        <v>0.01294505347103278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.00763280864525914</v>
+        <v>-0.03172757841466047</v>
       </c>
       <c r="C6">
-        <v>-0.004268513363125246</v>
+        <v>-0.002097441801031696</v>
       </c>
       <c r="D6">
-        <v>0.005451233248640925</v>
+        <v>-0.02439427878263581</v>
       </c>
       <c r="E6">
-        <v>0.003536237301769944</v>
+        <v>0.003285114154808934</v>
       </c>
       <c r="F6">
-        <v>0.006849172191870569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02751426544766391</v>
+      </c>
+      <c r="G6">
+        <v>-0.01068574067761723</v>
+      </c>
+      <c r="H6">
+        <v>-0.04523345410809623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03738424479594038</v>
+        <v>-0.0271961070976354</v>
       </c>
       <c r="C7">
-        <v>-0.01691370520942448</v>
+        <v>-0.003771354573672598</v>
       </c>
       <c r="D7">
-        <v>0.0427311464019666</v>
+        <v>-0.02053673211797026</v>
       </c>
       <c r="E7">
-        <v>-0.02329041026913413</v>
+        <v>0.0337792224324055</v>
       </c>
       <c r="F7">
-        <v>0.0619594186316098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02747554194999781</v>
+      </c>
+      <c r="G7">
+        <v>-0.04810833180945878</v>
+      </c>
+      <c r="H7">
+        <v>0.0212669543847216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03132826050339686</v>
+        <v>-0.01067139093585485</v>
       </c>
       <c r="C8">
-        <v>-0.006347399581114279</v>
+        <v>-0.005822752438192416</v>
       </c>
       <c r="D8">
-        <v>0.02836121059920566</v>
+        <v>-0.02358926657368299</v>
       </c>
       <c r="E8">
-        <v>-0.05858071805086323</v>
+        <v>0.00979147087528554</v>
       </c>
       <c r="F8">
-        <v>0.09478553808777442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02986762207826739</v>
+      </c>
+      <c r="G8">
+        <v>-0.06444633714678728</v>
+      </c>
+      <c r="H8">
+        <v>0.04064905629826026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.05311744857699073</v>
+        <v>-0.04313462909832848</v>
       </c>
       <c r="C9">
-        <v>-0.02935623808757024</v>
+        <v>-0.008385433176765586</v>
       </c>
       <c r="D9">
-        <v>0.01957916426717439</v>
+        <v>-0.02676581830873485</v>
       </c>
       <c r="E9">
-        <v>-0.0697487783855083</v>
+        <v>0.01638488695059055</v>
       </c>
       <c r="F9">
-        <v>0.05985930812683825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04327338590059605</v>
+      </c>
+      <c r="G9">
+        <v>-0.07313621617552063</v>
+      </c>
+      <c r="H9">
+        <v>0.01181533388248421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03817779538789462</v>
+        <v>-0.06452541307945373</v>
       </c>
       <c r="C10">
-        <v>-0.05731707643349668</v>
+        <v>-0.02520754618751523</v>
       </c>
       <c r="D10">
-        <v>-0.09654697465172198</v>
+        <v>0.1584974699384451</v>
       </c>
       <c r="E10">
-        <v>0.1176691444057787</v>
+        <v>-0.01453395315003136</v>
       </c>
       <c r="F10">
-        <v>0.08001488179957295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07318152103862154</v>
+      </c>
+      <c r="G10">
+        <v>-0.05114281404907932</v>
+      </c>
+      <c r="H10">
+        <v>0.02134176958677236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04482213006357724</v>
+        <v>-0.02968633325994622</v>
       </c>
       <c r="C11">
-        <v>-0.007926627179672907</v>
+        <v>-0.01602702745065446</v>
       </c>
       <c r="D11">
-        <v>0.027878266523725</v>
+        <v>-0.03288955409736463</v>
       </c>
       <c r="E11">
-        <v>-0.02085068065955568</v>
+        <v>-0.006021205523782703</v>
       </c>
       <c r="F11">
-        <v>0.03561847497525485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02369313363601245</v>
+      </c>
+      <c r="G11">
+        <v>-0.04367407725790562</v>
+      </c>
+      <c r="H11">
+        <v>-0.002953361516621278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04681763448215799</v>
+        <v>-0.03605108959818356</v>
       </c>
       <c r="C12">
-        <v>-0.008407764320419092</v>
+        <v>-0.01410649532353534</v>
       </c>
       <c r="D12">
-        <v>0.02162726603952662</v>
+        <v>-0.0316028799960096</v>
       </c>
       <c r="E12">
-        <v>-0.03681472392806046</v>
+        <v>0.004984577257892192</v>
       </c>
       <c r="F12">
-        <v>0.01836643342727468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02498667199793768</v>
+      </c>
+      <c r="G12">
+        <v>-0.01241301968760452</v>
+      </c>
+      <c r="H12">
+        <v>0.001128557754960921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.03989823353981434</v>
+        <v>-0.03427754688614271</v>
       </c>
       <c r="C13">
-        <v>-0.02301119668978089</v>
+        <v>0.005743651467085404</v>
       </c>
       <c r="D13">
-        <v>0.04457429031359687</v>
+        <v>-0.007325094222229558</v>
       </c>
       <c r="E13">
-        <v>-0.01184588461690478</v>
+        <v>-0.01667803233009694</v>
       </c>
       <c r="F13">
-        <v>0.1005777088922938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02661870353604728</v>
+      </c>
+      <c r="G13">
+        <v>-0.08159204026510924</v>
+      </c>
+      <c r="H13">
+        <v>0.02614195962987315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01755500313272128</v>
+        <v>-0.01700283215315267</v>
       </c>
       <c r="C14">
-        <v>-0.02239666552420041</v>
+        <v>-0.003208920904511082</v>
       </c>
       <c r="D14">
-        <v>0.0220568139686445</v>
+        <v>-0.001106955684658992</v>
       </c>
       <c r="E14">
-        <v>-0.03207115201510925</v>
+        <v>0.0075389245273126</v>
       </c>
       <c r="F14">
-        <v>0.05723941427241112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02986418810829585</v>
+      </c>
+      <c r="G14">
+        <v>-0.038423360898809</v>
+      </c>
+      <c r="H14">
+        <v>0.05716442498458164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03620481510042962</v>
+        <v>-0.02859226610977934</v>
       </c>
       <c r="C16">
-        <v>-0.008541914761195771</v>
+        <v>-0.01529328125841965</v>
       </c>
       <c r="D16">
-        <v>0.02503005109609185</v>
+        <v>-0.03004789511069402</v>
       </c>
       <c r="E16">
-        <v>-0.02152631310742525</v>
+        <v>-0.0008960163417703543</v>
       </c>
       <c r="F16">
-        <v>0.03273341614227875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02349656411210123</v>
+      </c>
+      <c r="G16">
+        <v>-0.0319846613427095</v>
+      </c>
+      <c r="H16">
+        <v>0.0002106078574764122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04699610839855631</v>
+        <v>-0.03690331593085038</v>
       </c>
       <c r="C19">
-        <v>-0.007184952719565632</v>
+        <v>-0.007057447605719839</v>
       </c>
       <c r="D19">
-        <v>0.03848245345870726</v>
+        <v>-0.01613769232019861</v>
       </c>
       <c r="E19">
-        <v>-0.02674779138430214</v>
+        <v>-0.004686040560097038</v>
       </c>
       <c r="F19">
-        <v>0.09250442845360207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03556558789501847</v>
+      </c>
+      <c r="G19">
+        <v>-0.08195949781325079</v>
+      </c>
+      <c r="H19">
+        <v>0.0294746210125681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01284618055058891</v>
+        <v>-0.0104355677465469</v>
       </c>
       <c r="C20">
-        <v>-0.01784799997346023</v>
+        <v>0.004527047455041323</v>
       </c>
       <c r="D20">
-        <v>0.03342184643908722</v>
+        <v>-0.01283589605726465</v>
       </c>
       <c r="E20">
-        <v>-0.0455512615039832</v>
+        <v>0.003785017584290179</v>
       </c>
       <c r="F20">
-        <v>0.05747642548913202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02518669074121727</v>
+      </c>
+      <c r="G20">
+        <v>-0.05092570031472375</v>
+      </c>
+      <c r="H20">
+        <v>0.04331758042813978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01236766517905446</v>
+        <v>-0.02439285098965208</v>
       </c>
       <c r="C21">
-        <v>0.0003924041380035126</v>
+        <v>0.002020661391452916</v>
       </c>
       <c r="D21">
-        <v>0.030014476101429</v>
+        <v>-0.003091341857913511</v>
       </c>
       <c r="E21">
-        <v>-0.02769946278775055</v>
+        <v>0.01113251692379301</v>
       </c>
       <c r="F21">
-        <v>0.09345916187175816</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01289781041659177</v>
+      </c>
+      <c r="G21">
+        <v>-0.06400730349620469</v>
+      </c>
+      <c r="H21">
+        <v>0.0260091623834272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03500648973515568</v>
+        <v>-0.02755387330117677</v>
       </c>
       <c r="C24">
-        <v>-0.007383806800974211</v>
+        <v>-0.009915871746932023</v>
       </c>
       <c r="D24">
-        <v>0.02022964313856698</v>
+        <v>-0.02965612466064655</v>
       </c>
       <c r="E24">
-        <v>-0.02124182717816091</v>
+        <v>-0.0003310218345682051</v>
       </c>
       <c r="F24">
-        <v>0.04012481077727558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02039205801828266</v>
+      </c>
+      <c r="G24">
+        <v>-0.03421021137852974</v>
+      </c>
+      <c r="H24">
+        <v>-0.007193913289115584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03902719552998282</v>
+        <v>-0.03741380443367319</v>
       </c>
       <c r="C25">
-        <v>-0.007628609656587196</v>
+        <v>-0.009369509306589295</v>
       </c>
       <c r="D25">
-        <v>0.02274570723109779</v>
+        <v>-0.02505090111957234</v>
       </c>
       <c r="E25">
-        <v>-0.02965358043790107</v>
+        <v>0.0004749226834325864</v>
       </c>
       <c r="F25">
-        <v>0.03975166621071964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02722325564365251</v>
+      </c>
+      <c r="G25">
+        <v>-0.04090611373679406</v>
+      </c>
+      <c r="H25">
+        <v>-0.005217435628300287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02037034968226657</v>
+        <v>-0.01966914888832927</v>
       </c>
       <c r="C26">
-        <v>0.001359929612804633</v>
+        <v>0.01557907912902281</v>
       </c>
       <c r="D26">
-        <v>0.04625212342971582</v>
+        <v>-0.0107338758375148</v>
       </c>
       <c r="E26">
-        <v>-0.01815724130718116</v>
+        <v>-0.005804739839748732</v>
       </c>
       <c r="F26">
-        <v>0.05754849283022262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008793093558738568</v>
+      </c>
+      <c r="G26">
+        <v>-0.04469392524066823</v>
+      </c>
+      <c r="H26">
+        <v>0.03722885655873347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.09381835004766054</v>
+        <v>-0.04330696852099358</v>
       </c>
       <c r="C27">
-        <v>-0.04947203573428886</v>
+        <v>-0.02321937472680796</v>
       </c>
       <c r="D27">
-        <v>0.02060716342858649</v>
+        <v>-0.009816436996775776</v>
       </c>
       <c r="E27">
-        <v>-0.04754311434965165</v>
+        <v>0.001967225814483985</v>
       </c>
       <c r="F27">
-        <v>0.05434653137954919</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03268055419070894</v>
+      </c>
+      <c r="G27">
+        <v>-0.03524028787610727</v>
+      </c>
+      <c r="H27">
+        <v>0.02496178901367941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05424255558760489</v>
+        <v>-0.09917595033898728</v>
       </c>
       <c r="C28">
-        <v>-0.06731614160501045</v>
+        <v>-0.02439812852780385</v>
       </c>
       <c r="D28">
-        <v>-0.1564174867974381</v>
+        <v>0.2343744160017986</v>
       </c>
       <c r="E28">
-        <v>0.1676959187911957</v>
+        <v>-0.01394490264662565</v>
       </c>
       <c r="F28">
-        <v>0.07826824611031258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1076522027179617</v>
+      </c>
+      <c r="G28">
+        <v>-0.03240222225631823</v>
+      </c>
+      <c r="H28">
+        <v>0.04788127856348346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0233592723501881</v>
+        <v>-0.02166731289545742</v>
       </c>
       <c r="C29">
-        <v>-0.01958907083245738</v>
+        <v>-0.005430618907178515</v>
       </c>
       <c r="D29">
-        <v>0.01990606756477811</v>
+        <v>-0.002547155726432607</v>
       </c>
       <c r="E29">
-        <v>-0.04009677716240295</v>
+        <v>0.007840129716369222</v>
       </c>
       <c r="F29">
-        <v>0.04509383547880336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02918740484048681</v>
+      </c>
+      <c r="G29">
+        <v>-0.03313388833419878</v>
+      </c>
+      <c r="H29">
+        <v>0.05284959916884014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09831371270019108</v>
+        <v>-0.0713925508163287</v>
       </c>
       <c r="C30">
-        <v>-0.05012354037583606</v>
+        <v>-0.01318568412854581</v>
       </c>
       <c r="D30">
-        <v>0.06394297487374284</v>
+        <v>-0.04902637932933813</v>
       </c>
       <c r="E30">
-        <v>-0.04917529991004437</v>
+        <v>-0.04127863937804331</v>
       </c>
       <c r="F30">
-        <v>0.07268323596360551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07154822373883005</v>
+      </c>
+      <c r="G30">
+        <v>-0.08500370762675978</v>
+      </c>
+      <c r="H30">
+        <v>0.002614031603646038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06024419404718881</v>
+        <v>-0.05398136376931566</v>
       </c>
       <c r="C31">
-        <v>-0.01438635795690002</v>
+        <v>-0.02257729166216079</v>
       </c>
       <c r="D31">
-        <v>0.04304972752247883</v>
+        <v>-0.01313274936983073</v>
       </c>
       <c r="E31">
-        <v>0.005982563996055949</v>
+        <v>-0.01081926198522502</v>
       </c>
       <c r="F31">
-        <v>0.03380369786459494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01896950444324628</v>
+      </c>
+      <c r="G31">
+        <v>-0.01588970708479375</v>
+      </c>
+      <c r="H31">
+        <v>0.04711654192347882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.04439714210254421</v>
+        <v>-0.01733143832988648</v>
       </c>
       <c r="C32">
-        <v>-0.0141762901972584</v>
+        <v>-0.02080027499403685</v>
       </c>
       <c r="D32">
-        <v>0.04787381305580911</v>
+        <v>-0.01562127814319925</v>
       </c>
       <c r="E32">
-        <v>-0.0792338425398126</v>
+        <v>0.01626058122857281</v>
       </c>
       <c r="F32">
-        <v>0.07387236051001639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05492048556426152</v>
+      </c>
+      <c r="G32">
+        <v>-0.06255599247520373</v>
+      </c>
+      <c r="H32">
+        <v>0.004792153537150685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.06139767581228364</v>
+        <v>-0.04475678668763404</v>
       </c>
       <c r="C33">
-        <v>-0.002974818637003527</v>
+        <v>-0.0095016689646144</v>
       </c>
       <c r="D33">
-        <v>0.06326081000610462</v>
+        <v>-0.03131733346860077</v>
       </c>
       <c r="E33">
-        <v>-0.03174440663027464</v>
+        <v>-0.02428567018839118</v>
       </c>
       <c r="F33">
-        <v>0.0871849858936873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0177564592266139</v>
+      </c>
+      <c r="G33">
+        <v>-0.07272571325750678</v>
+      </c>
+      <c r="H33">
+        <v>0.03731512125299588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03909799543168168</v>
+        <v>-0.02983883314450584</v>
       </c>
       <c r="C34">
-        <v>-0.01446407449895066</v>
+        <v>-0.02359705773287554</v>
       </c>
       <c r="D34">
-        <v>0.02647214524211768</v>
+        <v>-0.02759474429700833</v>
       </c>
       <c r="E34">
-        <v>-0.02878617394900087</v>
+        <v>0.004604398744450092</v>
       </c>
       <c r="F34">
-        <v>0.04028568307390665</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02749754196000655</v>
+      </c>
+      <c r="G34">
+        <v>-0.03342254710341884</v>
+      </c>
+      <c r="H34">
+        <v>-0.003679865008380551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01385526604550531</v>
+        <v>-0.01835872646047525</v>
       </c>
       <c r="C36">
-        <v>-0.007310459247229402</v>
+        <v>0.002605890330353389</v>
       </c>
       <c r="D36">
-        <v>0.007555260370627774</v>
+        <v>0.002701789773360006</v>
       </c>
       <c r="E36">
-        <v>-0.0194813686058939</v>
+        <v>0.003189046167123467</v>
       </c>
       <c r="F36">
-        <v>0.03170412700283819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.006248120240729159</v>
+      </c>
+      <c r="G36">
+        <v>-0.02492869662863159</v>
+      </c>
+      <c r="H36">
+        <v>0.03286804203995527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009294334761971128</v>
+        <v>-0.01525326360337072</v>
       </c>
       <c r="C38">
-        <v>-0.003323717054905039</v>
+        <v>-0.01721711000562854</v>
       </c>
       <c r="D38">
-        <v>-0.01413534437672971</v>
+        <v>0.005631879179075609</v>
       </c>
       <c r="E38">
-        <v>-0.003105292764905354</v>
+        <v>0.004884601959032333</v>
       </c>
       <c r="F38">
-        <v>0.02956005531890294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01019466800660578</v>
+      </c>
+      <c r="G38">
+        <v>-0.03990536572376263</v>
+      </c>
+      <c r="H38">
+        <v>0.01362046345250229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.05149981521983298</v>
+        <v>-0.03535098000184717</v>
       </c>
       <c r="C39">
-        <v>-0.01983296156054684</v>
+        <v>-0.01298736672136433</v>
       </c>
       <c r="D39">
-        <v>0.04413530177073129</v>
+        <v>-0.0643677716785877</v>
       </c>
       <c r="E39">
-        <v>-0.02403937582171606</v>
+        <v>-0.005122944061380955</v>
       </c>
       <c r="F39">
-        <v>0.03730336444116076</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04732162730496852</v>
+      </c>
+      <c r="G39">
+        <v>-0.05728103188312285</v>
+      </c>
+      <c r="H39">
+        <v>-0.02668537153395964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0477492266451699</v>
+        <v>-0.03796357446423512</v>
       </c>
       <c r="C40">
-        <v>-0.04143334688198554</v>
+        <v>-0.01003980867335904</v>
       </c>
       <c r="D40">
-        <v>0.07014060494207458</v>
+        <v>-0.02667389828641634</v>
       </c>
       <c r="E40">
-        <v>-0.02431759303890898</v>
+        <v>-0.02213321269825809</v>
       </c>
       <c r="F40">
-        <v>0.08800505872254388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04315744358935798</v>
+      </c>
+      <c r="G40">
+        <v>-0.06627873193091699</v>
+      </c>
+      <c r="H40">
+        <v>0.0133728929842209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004448117035109197</v>
+        <v>-0.005026855259249146</v>
       </c>
       <c r="C41">
-        <v>0.004088922447255189</v>
+        <v>0.00189276600881614</v>
       </c>
       <c r="D41">
-        <v>0.01608506641084653</v>
+        <v>0.006630869874693736</v>
       </c>
       <c r="E41">
-        <v>-0.01598579302773865</v>
+        <v>-0.0003854260898580559</v>
       </c>
       <c r="F41">
-        <v>0.01945149384065078</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.000979589654115351</v>
+      </c>
+      <c r="G41">
+        <v>-0.01008115419783313</v>
+      </c>
+      <c r="H41">
+        <v>0.04379241792804917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.339422149659561</v>
+        <v>-0.2587900765517052</v>
       </c>
       <c r="C42">
-        <v>0.8875848015401333</v>
+        <v>0.05494336222805188</v>
       </c>
       <c r="D42">
-        <v>0.03020641340279725</v>
+        <v>-0.5122135298420448</v>
       </c>
       <c r="E42">
-        <v>0.2548251512479432</v>
+        <v>-0.1084495255313469</v>
       </c>
       <c r="F42">
-        <v>-0.02386677202178459</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7964846326552436</v>
+      </c>
+      <c r="G42">
+        <v>0.05025239584099701</v>
+      </c>
+      <c r="H42">
+        <v>-0.01263608733936206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01240790366421344</v>
+        <v>-0.003312566079907004</v>
       </c>
       <c r="C43">
-        <v>-0.0006207271968502007</v>
+        <v>0.003819252887702597</v>
       </c>
       <c r="D43">
-        <v>0.02175002574036338</v>
+        <v>0.008749265071796242</v>
       </c>
       <c r="E43">
-        <v>-0.01500038341456941</v>
+        <v>-0.004318022848839473</v>
       </c>
       <c r="F43">
-        <v>0.03647091327937204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004179683760563269</v>
+      </c>
+      <c r="G43">
+        <v>-0.01798453919884051</v>
+      </c>
+      <c r="H43">
+        <v>0.04842026498164805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03398620223384118</v>
+        <v>-0.01627123571651958</v>
       </c>
       <c r="C44">
-        <v>-0.004045913026250437</v>
+        <v>-0.003442628750919433</v>
       </c>
       <c r="D44">
-        <v>0.05527543502327134</v>
+        <v>-0.02658400456202407</v>
       </c>
       <c r="E44">
-        <v>-0.05039060471884452</v>
+        <v>0.001165151419188886</v>
       </c>
       <c r="F44">
-        <v>0.1761575834752347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01047606953676732</v>
+      </c>
+      <c r="G44">
+        <v>-0.1060057879777896</v>
+      </c>
+      <c r="H44">
+        <v>0.06062143428448005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02492789776344052</v>
+        <v>-0.02269115796606177</v>
       </c>
       <c r="C46">
-        <v>-0.01489914281119186</v>
+        <v>-0.002326350598663138</v>
       </c>
       <c r="D46">
-        <v>0.04212535663335414</v>
+        <v>-0.01211224826096596</v>
       </c>
       <c r="E46">
-        <v>-0.03826157221645549</v>
+        <v>-0.004487026000165202</v>
       </c>
       <c r="F46">
-        <v>0.04145573426591853</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03653820237245405</v>
+      </c>
+      <c r="G46">
+        <v>-0.04560824485976164</v>
+      </c>
+      <c r="H46">
+        <v>0.05414969362618392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09551860179556433</v>
+        <v>-0.07615843607661313</v>
       </c>
       <c r="C47">
-        <v>-0.03196661802011498</v>
+        <v>-0.04225974779432903</v>
       </c>
       <c r="D47">
-        <v>0.02983484808406801</v>
+        <v>-0.01439854541620212</v>
       </c>
       <c r="E47">
-        <v>-0.01846952532721069</v>
+        <v>-0.006976401193670099</v>
       </c>
       <c r="F47">
-        <v>0.008888828292309024</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03018447349791981</v>
+      </c>
+      <c r="G47">
+        <v>0.01557626372025187</v>
+      </c>
+      <c r="H47">
+        <v>0.05906272317714008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01555071410912308</v>
+        <v>-0.01784464759050424</v>
       </c>
       <c r="C48">
-        <v>-0.006986142708929909</v>
+        <v>-0.00792533985105132</v>
       </c>
       <c r="D48">
-        <v>0.02507905552745063</v>
+        <v>-0.004719703567905162</v>
       </c>
       <c r="E48">
-        <v>-0.0271580413159011</v>
+        <v>-0.0007909659537578396</v>
       </c>
       <c r="F48">
-        <v>0.05066539711461553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01248928781844444</v>
+      </c>
+      <c r="G48">
+        <v>-0.03169686016110929</v>
+      </c>
+      <c r="H48">
+        <v>0.0271483490859923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09190206548328594</v>
+        <v>-0.07181391671284261</v>
       </c>
       <c r="C50">
-        <v>-0.01555773898839111</v>
+        <v>-0.03686540444570154</v>
       </c>
       <c r="D50">
-        <v>0.0377454902384694</v>
+        <v>-0.02674923654289629</v>
       </c>
       <c r="E50">
-        <v>-0.009123940415589088</v>
+        <v>0.00599453262387767</v>
       </c>
       <c r="F50">
-        <v>0.01365080014798438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0243803840806564</v>
+      </c>
+      <c r="G50">
+        <v>-0.01265801830181313</v>
+      </c>
+      <c r="H50">
+        <v>0.053820877820045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04910871666578418</v>
+        <v>-0.0283849978444635</v>
       </c>
       <c r="C51">
-        <v>0.003800644541460355</v>
+        <v>-0.004737416650827888</v>
       </c>
       <c r="D51">
-        <v>0.04327461964390138</v>
+        <v>0.002341633844523521</v>
       </c>
       <c r="E51">
-        <v>0.01025687577276662</v>
+        <v>-0.01322193715726978</v>
       </c>
       <c r="F51">
-        <v>0.1642825659083499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.011472464712908</v>
+      </c>
+      <c r="G51">
+        <v>-0.09959396086301113</v>
+      </c>
+      <c r="H51">
+        <v>0.03792510976254602</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1200362566276971</v>
+        <v>-0.1036354240356059</v>
       </c>
       <c r="C53">
-        <v>-0.03434137707719676</v>
+        <v>-0.05655831034615784</v>
       </c>
       <c r="D53">
-        <v>0.05893879975236729</v>
+        <v>-0.04293223229156432</v>
       </c>
       <c r="E53">
-        <v>-0.02620075725537106</v>
+        <v>-0.007137479839723062</v>
       </c>
       <c r="F53">
-        <v>-0.06757020757520907</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05532849357222955</v>
+      </c>
+      <c r="G53">
+        <v>0.06291264498044247</v>
+      </c>
+      <c r="H53">
+        <v>0.03616178564682208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0218084610664596</v>
+        <v>-0.02132937154489143</v>
       </c>
       <c r="C54">
-        <v>-0.0316339508006884</v>
+        <v>-0.01526630433874912</v>
       </c>
       <c r="D54">
-        <v>0.009950778194460099</v>
+        <v>0.02494891719405408</v>
       </c>
       <c r="E54">
-        <v>-0.01652967584609779</v>
+        <v>0.003290203394972973</v>
       </c>
       <c r="F54">
-        <v>0.08127866716365566</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01837620417740176</v>
+      </c>
+      <c r="G54">
+        <v>-0.04199607578596737</v>
+      </c>
+      <c r="H54">
+        <v>0.06955088015237888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1114002711646972</v>
+        <v>-0.08910340051910888</v>
       </c>
       <c r="C55">
-        <v>-0.02231893941102115</v>
+        <v>-0.04945769215554786</v>
       </c>
       <c r="D55">
-        <v>0.0138578307331305</v>
+        <v>-0.04247329831435608</v>
       </c>
       <c r="E55">
-        <v>-0.04502729608016809</v>
+        <v>0.006861495652211804</v>
       </c>
       <c r="F55">
-        <v>-0.05532111562591834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04583664822169081</v>
+      </c>
+      <c r="G55">
+        <v>0.04822262773920636</v>
+      </c>
+      <c r="H55">
+        <v>0.04499463828810509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1428642883440124</v>
+        <v>-0.1308193685100974</v>
       </c>
       <c r="C56">
-        <v>-0.06899273759539186</v>
+        <v>-0.07862852928489639</v>
       </c>
       <c r="D56">
-        <v>0.03719465787716968</v>
+        <v>-0.04883830765293953</v>
       </c>
       <c r="E56">
-        <v>-0.04730022424800742</v>
+        <v>-0.000263700364805869</v>
       </c>
       <c r="F56">
-        <v>-0.1647406542070198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07958903963062397</v>
+      </c>
+      <c r="G56">
+        <v>0.112545945409529</v>
+      </c>
+      <c r="H56">
+        <v>0.003235621397627714</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04976369650349562</v>
+        <v>-0.04368095231369425</v>
       </c>
       <c r="C57">
-        <v>-0.01801043939832109</v>
+        <v>0.002115252406933607</v>
       </c>
       <c r="D57">
-        <v>0.04893770056744354</v>
+        <v>-0.02753279615100521</v>
       </c>
       <c r="E57">
-        <v>-0.01825646513506357</v>
+        <v>-0.01165102719647528</v>
       </c>
       <c r="F57">
-        <v>0.0754596402352187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03456524373810712</v>
+      </c>
+      <c r="G57">
+        <v>-0.0665881968809717</v>
+      </c>
+      <c r="H57">
+        <v>0.006573773237963796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2355254205173597</v>
+        <v>-0.1529134307093037</v>
       </c>
       <c r="C58">
-        <v>-0.05222388400369479</v>
+        <v>-0.06831948880354194</v>
       </c>
       <c r="D58">
-        <v>0.1324776680322581</v>
+        <v>-0.1017406207511069</v>
       </c>
       <c r="E58">
-        <v>-0.05387660527052637</v>
+        <v>-0.1037280013443728</v>
       </c>
       <c r="F58">
-        <v>0.2750142967533099</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07121423454438129</v>
+      </c>
+      <c r="G58">
+        <v>-0.472206116039731</v>
+      </c>
+      <c r="H58">
+        <v>0.4436014933363447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05724861121489786</v>
+        <v>-0.1035457344766394</v>
       </c>
       <c r="C59">
-        <v>-0.09579728166840983</v>
+        <v>-0.03415255539888448</v>
       </c>
       <c r="D59">
-        <v>-0.1165150264945852</v>
+        <v>0.2269627995178771</v>
       </c>
       <c r="E59">
-        <v>0.1222049280929309</v>
+        <v>-0.03021478206519436</v>
       </c>
       <c r="F59">
-        <v>0.05436147385907304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.07999092522701455</v>
+      </c>
+      <c r="G59">
+        <v>-0.03842043301430089</v>
+      </c>
+      <c r="H59">
+        <v>0.01614391332370519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1731709721578208</v>
+        <v>-0.1736649803674612</v>
       </c>
       <c r="C60">
-        <v>-0.07936876633346221</v>
+        <v>-0.06476111613636618</v>
       </c>
       <c r="D60">
-        <v>0.007221272076070108</v>
+        <v>0.02584686879684222</v>
       </c>
       <c r="E60">
-        <v>0.08146472641963218</v>
+        <v>-0.05979311476829687</v>
       </c>
       <c r="F60">
-        <v>0.09921471238024263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05525423890606741</v>
+      </c>
+      <c r="G60">
+        <v>-0.1778695200915207</v>
+      </c>
+      <c r="H60">
+        <v>-0.3669541619670043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02998295521312628</v>
+        <v>-0.02885549630641619</v>
       </c>
       <c r="C61">
-        <v>-0.01227410231611992</v>
+        <v>-0.01401294417143766</v>
       </c>
       <c r="D61">
-        <v>0.01809721019236368</v>
+        <v>-0.03425651467256433</v>
       </c>
       <c r="E61">
-        <v>-0.02186205865061493</v>
+        <v>0.000714836215379173</v>
       </c>
       <c r="F61">
-        <v>0.03791961338740563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03319150007796444</v>
+      </c>
+      <c r="G61">
+        <v>-0.03850749973116085</v>
+      </c>
+      <c r="H61">
+        <v>-0.02264521034104924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02449860380393177</v>
+        <v>-0.01999413930328105</v>
       </c>
       <c r="C63">
-        <v>-0.02271798076276177</v>
+        <v>-0.004059451510359574</v>
       </c>
       <c r="D63">
-        <v>0.03748607772136089</v>
+        <v>-0.0118253794896054</v>
       </c>
       <c r="E63">
-        <v>-0.03541782998372704</v>
+        <v>-0.0006115906424758435</v>
       </c>
       <c r="F63">
-        <v>0.0418172203366351</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02710842671745719</v>
+      </c>
+      <c r="G63">
+        <v>-0.02757979465016813</v>
+      </c>
+      <c r="H63">
+        <v>0.04489223654077606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05500571655980713</v>
+        <v>-0.04866309853510686</v>
       </c>
       <c r="C64">
-        <v>-0.01431181081274793</v>
+        <v>-0.02091594157627709</v>
       </c>
       <c r="D64">
-        <v>0.03009683790798897</v>
+        <v>-0.04115626150903417</v>
       </c>
       <c r="E64">
-        <v>-0.06766735421427622</v>
+        <v>0.007290874707654715</v>
       </c>
       <c r="F64">
-        <v>0.05215061384309415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03278399650290108</v>
+      </c>
+      <c r="G64">
+        <v>-0.03770770136464818</v>
+      </c>
+      <c r="H64">
+        <v>0.0100397153047004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00686152327994528</v>
+        <v>-0.03742138589852534</v>
       </c>
       <c r="C65">
-        <v>-0.003012560874122989</v>
+        <v>-0.002680128987228522</v>
       </c>
       <c r="D65">
-        <v>0.003403107645186542</v>
+        <v>-0.02798230562051668</v>
       </c>
       <c r="E65">
-        <v>0.005560508718327332</v>
+        <v>0.002994115740605579</v>
       </c>
       <c r="F65">
-        <v>0.005107341377033823</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02742939388558339</v>
+      </c>
+      <c r="G65">
+        <v>-0.005492481651310068</v>
+      </c>
+      <c r="H65">
+        <v>-0.05470982114985536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05569848482204202</v>
+        <v>-0.04425438313460074</v>
       </c>
       <c r="C66">
-        <v>-0.03045921033864106</v>
+        <v>-0.02091094023697921</v>
       </c>
       <c r="D66">
-        <v>0.05396340433495592</v>
+        <v>-0.07324257821750807</v>
       </c>
       <c r="E66">
-        <v>-0.0440558505748301</v>
+        <v>-0.01263423759384533</v>
       </c>
       <c r="F66">
-        <v>0.04738509290049871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07024044434676439</v>
+      </c>
+      <c r="G66">
+        <v>-0.05723138493943717</v>
+      </c>
+      <c r="H66">
+        <v>-0.03787631498516753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02695463519702747</v>
+        <v>-0.03355649698780386</v>
       </c>
       <c r="C67">
-        <v>-0.01185357222221946</v>
+        <v>-0.02205018671808997</v>
       </c>
       <c r="D67">
-        <v>-0.02346822562269771</v>
+        <v>0.01644351636192256</v>
       </c>
       <c r="E67">
-        <v>0.01347982233002477</v>
+        <v>0.0002844462792416054</v>
       </c>
       <c r="F67">
-        <v>0.03279976638692895</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01019864468396399</v>
+      </c>
+      <c r="G67">
+        <v>-0.03165355615310415</v>
+      </c>
+      <c r="H67">
+        <v>-0.003823635763310372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05829342392202111</v>
+        <v>-0.1017675126329069</v>
       </c>
       <c r="C68">
-        <v>-0.07951385012503678</v>
+        <v>-0.01034621413728407</v>
       </c>
       <c r="D68">
-        <v>-0.1615712023749467</v>
+        <v>0.2204490986803407</v>
       </c>
       <c r="E68">
-        <v>0.1613445443277921</v>
+        <v>-0.02223303447832216</v>
       </c>
       <c r="F68">
-        <v>0.02179172659525632</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1001393690115447</v>
+      </c>
+      <c r="G68">
+        <v>-0.01259626991114988</v>
+      </c>
+      <c r="H68">
+        <v>0.05144350506446637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07026585804154713</v>
+        <v>-0.05974368026759595</v>
       </c>
       <c r="C69">
-        <v>-0.03745061791913702</v>
+        <v>-0.03787923607228436</v>
       </c>
       <c r="D69">
-        <v>0.01479451513331753</v>
+        <v>-0.00893090475759185</v>
       </c>
       <c r="E69">
-        <v>0.01148915603996414</v>
+        <v>-0.008210454422057471</v>
       </c>
       <c r="F69">
-        <v>0.01689697896090693</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02635395810383013</v>
+      </c>
+      <c r="G69">
+        <v>0.001536200760091838</v>
+      </c>
+      <c r="H69">
+        <v>0.03520023588117906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06458795470866452</v>
+        <v>-0.1014072310677443</v>
       </c>
       <c r="C71">
-        <v>-0.09201435711558179</v>
+        <v>-0.01972900930436576</v>
       </c>
       <c r="D71">
-        <v>-0.1947712263465942</v>
+        <v>0.2280492205670689</v>
       </c>
       <c r="E71">
-        <v>0.2528851584229335</v>
+        <v>-0.03005522335981526</v>
       </c>
       <c r="F71">
-        <v>0.0790607804894367</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.122715974912164</v>
+      </c>
+      <c r="G71">
+        <v>-0.02887671731706471</v>
+      </c>
+      <c r="H71">
+        <v>0.01567055222679599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1234956779558469</v>
+        <v>-0.1056957085872075</v>
       </c>
       <c r="C72">
-        <v>-0.1053498816677223</v>
+        <v>-0.06693862199734142</v>
       </c>
       <c r="D72">
-        <v>0.02987504475638213</v>
+        <v>-0.04487501977237615</v>
       </c>
       <c r="E72">
-        <v>-0.04009720990874304</v>
+        <v>-0.01448000857033281</v>
       </c>
       <c r="F72">
-        <v>0.03555411125205377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1141465875809418</v>
+      </c>
+      <c r="G72">
+        <v>-0.1063305293120319</v>
+      </c>
+      <c r="H72">
+        <v>-0.1221068250792368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2482939527445138</v>
+        <v>-0.2439341102258433</v>
       </c>
       <c r="C73">
-        <v>-0.1108364085687238</v>
+        <v>-0.08575249480111881</v>
       </c>
       <c r="D73">
-        <v>-0.03092469151844306</v>
+        <v>0.01112186229518133</v>
       </c>
       <c r="E73">
-        <v>0.1279512961053724</v>
+        <v>-0.09443437212492166</v>
       </c>
       <c r="F73">
-        <v>0.1697415896479996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.05754820395640396</v>
+      </c>
+      <c r="G73">
+        <v>-0.2517735092912613</v>
+      </c>
+      <c r="H73">
+        <v>-0.5347601678465544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1303189043431</v>
+        <v>-0.1193281489147464</v>
       </c>
       <c r="C74">
-        <v>-0.0333898976162627</v>
+        <v>-0.07053293141216732</v>
       </c>
       <c r="D74">
-        <v>0.02715849475629552</v>
+        <v>-0.0482055892599489</v>
       </c>
       <c r="E74">
-        <v>-0.0129407159885493</v>
+        <v>-0.009067019471768408</v>
       </c>
       <c r="F74">
-        <v>-0.1154516576948715</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06118977731170575</v>
+      </c>
+      <c r="G74">
+        <v>0.08672873022110664</v>
+      </c>
+      <c r="H74">
+        <v>-0.01040530370464863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2316128946651417</v>
+        <v>-0.231312156331906</v>
       </c>
       <c r="C75">
-        <v>-0.1013213272205492</v>
+        <v>-0.1387757388288952</v>
       </c>
       <c r="D75">
-        <v>0.06350288253085647</v>
+        <v>-0.0525501018277726</v>
       </c>
       <c r="E75">
-        <v>-0.01078544485303297</v>
+        <v>-0.03258260947814191</v>
       </c>
       <c r="F75">
-        <v>-0.1800630600030659</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1208344631152818</v>
+      </c>
+      <c r="G75">
+        <v>0.1844346194301054</v>
+      </c>
+      <c r="H75">
+        <v>0.03487348207943104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.254656157095464</v>
+        <v>-0.2178665549189686</v>
       </c>
       <c r="C76">
-        <v>-0.1132180995535962</v>
+        <v>-0.1351015801519725</v>
       </c>
       <c r="D76">
-        <v>0.007016305352317353</v>
+        <v>-0.0503097657490108</v>
       </c>
       <c r="E76">
-        <v>-0.04658262174976128</v>
+        <v>0.01185620080369872</v>
       </c>
       <c r="F76">
-        <v>-0.2208079144636451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1287233174159425</v>
+      </c>
+      <c r="G76">
+        <v>0.2063426100004658</v>
+      </c>
+      <c r="H76">
+        <v>0.05246536552975856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.150621003602668</v>
+        <v>-0.0896598161610227</v>
       </c>
       <c r="C77">
-        <v>0.01919888531572609</v>
+        <v>-0.02775798369398176</v>
       </c>
       <c r="D77">
-        <v>0.08127088568750312</v>
+        <v>-0.07686061116521849</v>
       </c>
       <c r="E77">
-        <v>-0.03930430507140115</v>
+        <v>-0.0140779777343306</v>
       </c>
       <c r="F77">
-        <v>0.2049680428845418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.006393993479178507</v>
+      </c>
+      <c r="G77">
+        <v>-0.1418198770055721</v>
+      </c>
+      <c r="H77">
+        <v>0.1751649815732778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06513843326760436</v>
+        <v>-0.0473432380984365</v>
       </c>
       <c r="C78">
-        <v>-0.006104147350648851</v>
+        <v>-0.02171376742549964</v>
       </c>
       <c r="D78">
-        <v>0.07083516144868332</v>
+        <v>-0.06127720767382368</v>
       </c>
       <c r="E78">
-        <v>-0.08116196508247144</v>
+        <v>0.001790622399683857</v>
       </c>
       <c r="F78">
-        <v>0.04082616077331821</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04758397415097274</v>
+      </c>
+      <c r="G78">
+        <v>-0.06340397190035248</v>
+      </c>
+      <c r="H78">
+        <v>0.01771823132500413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1603304045581833</v>
+        <v>-0.1678660334341078</v>
       </c>
       <c r="C80">
-        <v>0.1582925555367083</v>
+        <v>-0.06846789323027118</v>
       </c>
       <c r="D80">
-        <v>-0.7118064847454799</v>
+        <v>-0.003649403444121191</v>
       </c>
       <c r="E80">
-        <v>-0.6431506518203932</v>
+        <v>0.9653999127359273</v>
       </c>
       <c r="F80">
-        <v>0.05816315845444971</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.09283116653538749</v>
+      </c>
+      <c r="G80">
+        <v>-0.09275169913514014</v>
+      </c>
+      <c r="H80">
+        <v>-0.02809915862809084</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1621547351975828</v>
+        <v>-0.1575184545030042</v>
       </c>
       <c r="C81">
-        <v>-0.08842441511030956</v>
+        <v>-0.0948779375246226</v>
       </c>
       <c r="D81">
-        <v>0.03655763944739458</v>
+        <v>-0.03737099239062424</v>
       </c>
       <c r="E81">
-        <v>-0.03182317800078983</v>
+        <v>-0.006839937352026386</v>
       </c>
       <c r="F81">
-        <v>-0.2015049031126503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09305328813004647</v>
+      </c>
+      <c r="G81">
+        <v>0.1389795729400328</v>
+      </c>
+      <c r="H81">
+        <v>0.0496605072741108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05896263741225961</v>
+        <v>-0.04246345590587734</v>
       </c>
       <c r="C83">
-        <v>0.01548107694382308</v>
+        <v>-0.01530707688514801</v>
       </c>
       <c r="D83">
-        <v>0.05471086783328686</v>
+        <v>-0.02798086117137251</v>
       </c>
       <c r="E83">
-        <v>-0.02302705973548166</v>
+        <v>-0.01341104286931083</v>
       </c>
       <c r="F83">
-        <v>0.07414567267176461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01591362324907917</v>
+      </c>
+      <c r="G83">
+        <v>-0.06100456939201972</v>
+      </c>
+      <c r="H83">
+        <v>0.02099010937264832</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2351420688989408</v>
+        <v>-0.2212771127926512</v>
       </c>
       <c r="C85">
-        <v>-0.07488588185483466</v>
+        <v>-0.1201764181083491</v>
       </c>
       <c r="D85">
-        <v>0.03484759233378555</v>
+        <v>-0.07643085671982543</v>
       </c>
       <c r="E85">
-        <v>-0.0273540275405038</v>
+        <v>-0.02143947926540347</v>
       </c>
       <c r="F85">
-        <v>-0.1910345930967768</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1117528302287058</v>
+      </c>
+      <c r="G85">
+        <v>0.1762682524078798</v>
+      </c>
+      <c r="H85">
+        <v>0.03563774662715197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01746821842961308</v>
+        <v>-0.01357757188062099</v>
       </c>
       <c r="C86">
-        <v>0.009169845522127932</v>
+        <v>-0.0009331084794862147</v>
       </c>
       <c r="D86">
-        <v>0.04137022005865404</v>
+        <v>-0.02327726724497843</v>
       </c>
       <c r="E86">
-        <v>-0.06049002377028244</v>
+        <v>-0.007003520722216538</v>
       </c>
       <c r="F86">
-        <v>0.09438270505216891</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01740898691410107</v>
+      </c>
+      <c r="G86">
+        <v>-0.09786810651645804</v>
+      </c>
+      <c r="H86">
+        <v>0.0262249178965348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02245033012107181</v>
+        <v>-0.02484828588256995</v>
       </c>
       <c r="C87">
-        <v>-0.02655078016517134</v>
+        <v>-0.004559731340767999</v>
       </c>
       <c r="D87">
-        <v>-0.03954758961840314</v>
+        <v>0.006508195009838209</v>
       </c>
       <c r="E87">
-        <v>0.0405774844223973</v>
+        <v>-0.0002316081684278655</v>
       </c>
       <c r="F87">
-        <v>0.06650256557354516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.00644630076796091</v>
+      </c>
+      <c r="G87">
+        <v>-0.09045926212216335</v>
+      </c>
+      <c r="H87">
+        <v>-0.01058498664517208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01522629681764903</v>
+        <v>-0.03743219760456537</v>
       </c>
       <c r="C88">
-        <v>-0.01959873802254234</v>
+        <v>0.006181137296894691</v>
       </c>
       <c r="D88">
-        <v>-0.01292930358898332</v>
+        <v>0.01649944713805601</v>
       </c>
       <c r="E88">
-        <v>-0.01196597625184197</v>
+        <v>0.004890331334776433</v>
       </c>
       <c r="F88">
-        <v>0.03812866728360127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01284519750529116</v>
+      </c>
+      <c r="G88">
+        <v>-0.008124853623042237</v>
+      </c>
+      <c r="H88">
+        <v>0.01633603988183588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08378806877549963</v>
+        <v>-0.1583331569527908</v>
       </c>
       <c r="C89">
-        <v>-0.09712660222438388</v>
+        <v>-0.02730404201254649</v>
       </c>
       <c r="D89">
-        <v>-0.1950721941779975</v>
+        <v>0.3468547897344093</v>
       </c>
       <c r="E89">
-        <v>0.2571102673479469</v>
+        <v>-0.06262960309312378</v>
       </c>
       <c r="F89">
-        <v>0.1122903883103862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1560506810636173</v>
+      </c>
+      <c r="G89">
+        <v>-0.02218076363231051</v>
+      </c>
+      <c r="H89">
+        <v>0.06049485776897098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07964117362115981</v>
+        <v>-0.1232425558172599</v>
       </c>
       <c r="C90">
-        <v>-0.09542997854234121</v>
+        <v>-0.0205708880293856</v>
       </c>
       <c r="D90">
-        <v>-0.2290606444430286</v>
+        <v>0.298483425633074</v>
       </c>
       <c r="E90">
-        <v>0.207565342792802</v>
+        <v>-0.03597618616909276</v>
       </c>
       <c r="F90">
-        <v>0.06201588660802588</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1466558716725903</v>
+      </c>
+      <c r="G90">
+        <v>0.01593239662815987</v>
+      </c>
+      <c r="H90">
+        <v>0.06075454580524937</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3020720592361479</v>
+        <v>-0.2494352015223325</v>
       </c>
       <c r="C91">
-        <v>-0.07861151996383429</v>
+        <v>-0.1468231416956463</v>
       </c>
       <c r="D91">
-        <v>0.07576444642969427</v>
+        <v>-0.08631012887452164</v>
       </c>
       <c r="E91">
-        <v>-0.03877118735742306</v>
+        <v>-0.02509820923098876</v>
       </c>
       <c r="F91">
-        <v>-0.2831653079408614</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1205439755429241</v>
+      </c>
+      <c r="G91">
+        <v>0.2513231931542557</v>
+      </c>
+      <c r="H91">
+        <v>0.07805977322725668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1193738928241222</v>
+        <v>-0.1862546420151301</v>
       </c>
       <c r="C92">
-        <v>-0.08372002935510107</v>
+        <v>-0.0977470040324912</v>
       </c>
       <c r="D92">
-        <v>-0.242993919419065</v>
+        <v>0.2918626459417173</v>
       </c>
       <c r="E92">
-        <v>0.2109357652016364</v>
+        <v>-0.01989432064585474</v>
       </c>
       <c r="F92">
-        <v>0.06361537693814724</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1340526458365018</v>
+      </c>
+      <c r="G92">
+        <v>0.04575173218302257</v>
+      </c>
+      <c r="H92">
+        <v>0.1359437576224405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0728893512550136</v>
+        <v>-0.1425913433037496</v>
       </c>
       <c r="C93">
-        <v>-0.0823832974658964</v>
+        <v>-0.03057643322789717</v>
       </c>
       <c r="D93">
-        <v>-0.2791060842854826</v>
+        <v>0.3359009865398347</v>
       </c>
       <c r="E93">
-        <v>0.2830010317169218</v>
+        <v>-0.05111840141003994</v>
       </c>
       <c r="F93">
-        <v>0.04174988730279106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1938463227195349</v>
+      </c>
+      <c r="G93">
+        <v>0.01359090791983873</v>
+      </c>
+      <c r="H93">
+        <v>-0.01010609800480211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2432684906807246</v>
+        <v>-0.2546658584673763</v>
       </c>
       <c r="C94">
-        <v>-0.1088538025289682</v>
+        <v>-0.1290788527230544</v>
       </c>
       <c r="D94">
-        <v>-0.008021024049970739</v>
+        <v>-0.03490949379504271</v>
       </c>
       <c r="E94">
-        <v>-0.006836096450718401</v>
+        <v>-0.03777698149308294</v>
       </c>
       <c r="F94">
-        <v>-0.3292485457975388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1193257150643924</v>
+      </c>
+      <c r="G94">
+        <v>0.2799880606751474</v>
+      </c>
+      <c r="H94">
+        <v>0.07284276809625848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1418645503595735</v>
+        <v>-0.09005537484864287</v>
       </c>
       <c r="C95">
-        <v>0.001809137546157789</v>
+        <v>-0.05603761264516342</v>
       </c>
       <c r="D95">
-        <v>0.1365256653209727</v>
+        <v>-0.08766117584400152</v>
       </c>
       <c r="E95">
-        <v>-0.06073506894397629</v>
+        <v>-0.07866958365031428</v>
       </c>
       <c r="F95">
-        <v>0.08153412423253284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03590498099453636</v>
+      </c>
+      <c r="G95">
+        <v>-0.1063196779561729</v>
+      </c>
+      <c r="H95">
+        <v>0.06788929608876729</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1892787008976862</v>
+        <v>-0.1764522993170793</v>
       </c>
       <c r="C98">
-        <v>-0.05442940974947167</v>
+        <v>-0.09384408313692422</v>
       </c>
       <c r="D98">
-        <v>-0.006217201526873939</v>
+        <v>0.003880089630232389</v>
       </c>
       <c r="E98">
-        <v>0.09530019821423349</v>
+        <v>-0.06400670664132906</v>
       </c>
       <c r="F98">
-        <v>0.06114060302304275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01733517058299019</v>
+      </c>
+      <c r="G98">
+        <v>-0.1910184287347064</v>
+      </c>
+      <c r="H98">
+        <v>-0.4007965505562824</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01091016945452948</v>
+        <v>-0.01460087677868869</v>
       </c>
       <c r="C101">
-        <v>-0.02507531856192165</v>
+        <v>-0.002524081460504176</v>
       </c>
       <c r="D101">
-        <v>0.05003746526752761</v>
+        <v>-0.005297040529692534</v>
       </c>
       <c r="E101">
-        <v>-0.06503434552517177</v>
+        <v>0.003726594512373269</v>
       </c>
       <c r="F101">
-        <v>0.1617246750889899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03838594607892623</v>
+      </c>
+      <c r="G101">
+        <v>-0.08042764372244023</v>
+      </c>
+      <c r="H101">
+        <v>0.1095934343409702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1018049978532238</v>
+        <v>-0.1139326914230393</v>
       </c>
       <c r="C102">
-        <v>-0.02614825576136557</v>
+        <v>-0.05463386735006667</v>
       </c>
       <c r="D102">
-        <v>0.03939449464765427</v>
+        <v>-0.03959362552207448</v>
       </c>
       <c r="E102">
-        <v>-0.05068442730595628</v>
+        <v>-0.003158020678551675</v>
       </c>
       <c r="F102">
-        <v>-0.124413903406438</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06396531578282243</v>
+      </c>
+      <c r="G102">
+        <v>0.119119454345381</v>
+      </c>
+      <c r="H102">
+        <v>0.0227988037191635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02638160442207107</v>
+        <v>-0.0238118013587918</v>
       </c>
       <c r="C103">
-        <v>-0.007102525438437191</v>
+        <v>-0.01232437145908366</v>
       </c>
       <c r="D103">
-        <v>0.004070092712472292</v>
+        <v>-0.009800767106729282</v>
       </c>
       <c r="E103">
-        <v>-0.0001169873158030864</v>
+        <v>0.006563896695081541</v>
       </c>
       <c r="F103">
-        <v>-0.03827446352475679</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01354021667983861</v>
+      </c>
+      <c r="G103">
+        <v>0.01321136536644599</v>
+      </c>
+      <c r="H103">
+        <v>0.01345224267656802</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3837204210637267</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9010598325662035</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.02230690342015406</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.01779536590119257</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1681272066622741</v>
+      </c>
+      <c r="G104">
+        <v>0.05347167745107827</v>
+      </c>
+      <c r="H104">
+        <v>0.006614889998582547</v>
       </c>
     </row>
   </sheetData>
